--- a/tracking_optimization.xlsx
+++ b/tracking_optimization.xlsx
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J2" sqref="J2:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,13 +422,13 @@
         <v>-1.0920000000000001</v>
       </c>
       <c r="B2">
-        <v>0.35625000000000001</v>
+        <v>-0.35625000000000001</v>
       </c>
       <c r="C2">
         <v>1.2495000000000001</v>
       </c>
       <c r="D2">
-        <v>-0.74099999999999999</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="F2">
         <v>12500</v>
@@ -438,15 +438,6 @@
       </c>
       <c r="H2">
         <v>7320</v>
-      </c>
-      <c r="J2">
-        <v>33652</v>
-      </c>
-      <c r="K2">
-        <v>7195</v>
-      </c>
-      <c r="L2">
-        <v>5950</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -454,13 +445,13 @@
         <v>-1.9319999999999999</v>
       </c>
       <c r="B3">
-        <v>1.0069999999999999</v>
+        <v>-1.0069999999999999</v>
       </c>
       <c r="C3">
         <v>0.87849999999999995</v>
       </c>
       <c r="D3">
-        <v>-1.0545</v>
+        <v>1.0545</v>
       </c>
       <c r="F3">
         <v>12500</v>
@@ -470,15 +461,6 @@
       </c>
       <c r="H3">
         <v>4880</v>
-      </c>
-      <c r="J3">
-        <v>34799</v>
-      </c>
-      <c r="K3">
-        <v>11943</v>
-      </c>
-      <c r="L3">
-        <v>12005</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -486,13 +468,13 @@
         <v>-1.0009999999999999</v>
       </c>
       <c r="B4">
-        <v>6.1749999999999999E-2</v>
+        <v>-6.1749999999999999E-2</v>
       </c>
       <c r="C4">
         <v>0.15049999999999999</v>
       </c>
       <c r="D4">
-        <v>-0.30399999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="F4">
         <v>15000</v>
@@ -502,15 +484,6 @@
       </c>
       <c r="H4">
         <v>2440</v>
-      </c>
-      <c r="J4">
-        <v>28915</v>
-      </c>
-      <c r="K4">
-        <v>4828</v>
-      </c>
-      <c r="L4">
-        <v>6569</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -518,13 +491,13 @@
         <v>0.1925</v>
       </c>
       <c r="B5">
-        <v>-7.1249999999999994E-2</v>
+        <v>7.1249999999999994E-2</v>
       </c>
       <c r="C5">
         <v>0.92749999999999999</v>
       </c>
       <c r="D5">
-        <v>-7.5999999999999998E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F5">
         <v>15000</v>
@@ -534,15 +507,6 @@
       </c>
       <c r="H5">
         <v>7320</v>
-      </c>
-      <c r="J5">
-        <v>25058</v>
-      </c>
-      <c r="K5">
-        <v>3825</v>
-      </c>
-      <c r="L5">
-        <v>-800</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -550,13 +514,13 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="B6">
-        <v>-0.69350000000000001</v>
+        <v>0.69350000000000001</v>
       </c>
       <c r="C6">
         <v>0.217</v>
       </c>
       <c r="D6">
-        <v>1.0069999999999999</v>
+        <v>-1.0069999999999999</v>
       </c>
       <c r="F6">
         <v>20000</v>
@@ -566,15 +530,6 @@
       </c>
       <c r="H6">
         <v>4880</v>
-      </c>
-      <c r="J6">
-        <v>21855</v>
-      </c>
-      <c r="K6">
-        <v>48</v>
-      </c>
-      <c r="L6">
-        <v>1223</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -582,13 +537,13 @@
         <v>-0.71314999999999995</v>
       </c>
       <c r="B7">
-        <v>-1.4724999999999999</v>
+        <v>1.4724999999999999</v>
       </c>
       <c r="C7">
         <v>0.224</v>
       </c>
       <c r="D7">
-        <v>0.96250000000000002</v>
+        <v>-0.96250000000000002</v>
       </c>
       <c r="F7">
         <v>15000</v>
@@ -598,15 +553,6 @@
       </c>
       <c r="H7">
         <v>2440</v>
-      </c>
-      <c r="J7">
-        <v>24272</v>
-      </c>
-      <c r="K7">
-        <v>-4599</v>
-      </c>
-      <c r="L7">
-        <v>6343</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -614,13 +560,13 @@
         <v>0.308</v>
       </c>
       <c r="B8">
-        <v>-1.2017500000000001</v>
+        <v>1.2017500000000001</v>
       </c>
       <c r="C8">
         <v>0.91700000000000004</v>
       </c>
       <c r="D8">
-        <v>0.78374999999999995</v>
+        <v>-0.78374999999999995</v>
       </c>
       <c r="F8">
         <v>15000</v>
@@ -631,14 +577,51 @@
       <c r="H8">
         <v>7320</v>
       </c>
-      <c r="J8">
-        <v>23417</v>
-      </c>
-      <c r="K8">
-        <v>-3748</v>
-      </c>
-      <c r="L8">
-        <v>-670</v>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>-0.371</v>
+      </c>
+      <c r="B9">
+        <v>0.25174999999999997</v>
+      </c>
+      <c r="C9">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="D9">
+        <v>-1.4250000000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>-1.3049999999999999</v>
+      </c>
+      <c r="B10">
+        <v>1.3347500000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="D10">
+        <v>-0.20424999999999999</v>
+      </c>
+      <c r="F10">
+        <v>12500</v>
+      </c>
+      <c r="G10">
+        <v>7500</v>
+      </c>
+      <c r="H10">
+        <v>4880</v>
       </c>
     </row>
   </sheetData>

--- a/tracking_optimization.xlsx
+++ b/tracking_optimization.xlsx
@@ -4,55 +4,62 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="19020" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="28620" windowHeight="13170"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="tracking_results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>west col</t>
+    <t>Wx(mm)</t>
   </si>
   <si>
-    <t>west row</t>
+    <t>Wy(mm)</t>
   </si>
   <si>
-    <t>east col</t>
+    <t>Ex(mm)</t>
   </si>
   <si>
-    <t>east row</t>
+    <t>Ey(mm)</t>
   </si>
   <si>
-    <t>3d x</t>
+    <t>Tru3Dx(mm)</t>
   </si>
   <si>
-    <t>3d y</t>
+    <t>Tru3Dy(mm)</t>
   </si>
   <si>
-    <t>3d z</t>
+    <t>Tru3Dz(mm)</t>
   </si>
   <si>
-    <t>3d est x</t>
+    <t>Est3Dx(mm)</t>
   </si>
   <si>
-    <t>3d est z</t>
+    <t>Est3Dy(mm)</t>
   </si>
   <si>
-    <t>3d est y</t>
+    <t>Est3Dz(mm)</t>
+  </si>
+  <si>
+    <t>Err3Dx(mm)</t>
+  </si>
+  <si>
+    <t>Err3Dy(mm)</t>
+  </si>
+  <si>
+    <t>Err3Dz(mm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,16 +67,317 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -77,15 +385,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,15 +874,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,257 +895,2714 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
-        <v>-1.0920000000000001</v>
+        <v>2.1105</v>
       </c>
       <c r="B2">
+        <v>-0.97850000000000004</v>
+      </c>
+      <c r="C2">
+        <v>-0.50049999999999994</v>
+      </c>
+      <c r="D2">
+        <v>1.0687500000000001</v>
+      </c>
+      <c r="E2">
+        <v>12500</v>
+      </c>
+      <c r="F2">
+        <v>2500</v>
+      </c>
+      <c r="G2">
+        <v>2440</v>
+      </c>
+      <c r="H2">
+        <v>13970.6747082</v>
+      </c>
+      <c r="I2">
+        <v>-260.14359436500001</v>
+      </c>
+      <c r="J2">
+        <v>1424.73915379</v>
+      </c>
+      <c r="K2">
+        <v>1470.6747081999999</v>
+      </c>
+      <c r="L2">
+        <v>2760.1435943699998</v>
+      </c>
+      <c r="M2">
+        <v>1015.26084621</v>
+      </c>
+      <c r="N2">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="B3">
+        <v>-1.0117499999999999</v>
+      </c>
+      <c r="C3">
+        <v>-0.46550000000000002</v>
+      </c>
+      <c r="D3">
+        <v>1.1495</v>
+      </c>
+      <c r="E3">
+        <v>12500</v>
+      </c>
+      <c r="F3">
+        <v>2500</v>
+      </c>
+      <c r="G3">
+        <v>2440</v>
+      </c>
+      <c r="H3">
+        <v>14413.553227599999</v>
+      </c>
+      <c r="I3">
+        <v>-523.33369416000005</v>
+      </c>
+      <c r="J3">
+        <v>1119.25936075</v>
+      </c>
+      <c r="K3">
+        <v>1913.5532276500001</v>
+      </c>
+      <c r="L3">
+        <v>3023.3336941600001</v>
+      </c>
+      <c r="M3">
+        <v>1320.74063925</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2.1175000000000002</v>
+      </c>
+      <c r="B4">
+        <v>-0.86924999999999997</v>
+      </c>
+      <c r="C4">
+        <v>-0.47249999999999998</v>
+      </c>
+      <c r="D4">
+        <v>1.1352500000000001</v>
+      </c>
+      <c r="E4">
+        <v>12500</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4">
+        <v>2440</v>
+      </c>
+      <c r="H4">
+        <v>14384.238238600001</v>
+      </c>
+      <c r="I4">
+        <v>86.5410118952</v>
+      </c>
+      <c r="J4">
+        <v>977.89391011600003</v>
+      </c>
+      <c r="K4">
+        <v>1884.2382386300001</v>
+      </c>
+      <c r="L4">
+        <v>2413.4589881000002</v>
+      </c>
+      <c r="M4">
+        <v>1462.1060898799999</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="B5">
+        <v>-1.0022500000000001</v>
+      </c>
+      <c r="C5">
+        <v>-0.51449999999999996</v>
+      </c>
+      <c r="D5">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="E5">
+        <v>12500</v>
+      </c>
+      <c r="F5">
+        <v>2500</v>
+      </c>
+      <c r="G5">
+        <v>2440</v>
+      </c>
+      <c r="H5">
+        <v>13820.6831275</v>
+      </c>
+      <c r="I5">
+        <v>-313.09988273300002</v>
+      </c>
+      <c r="J5">
+        <v>1591.2435845099999</v>
+      </c>
+      <c r="K5">
+        <v>1320.68312754</v>
+      </c>
+      <c r="L5">
+        <v>2813.09988273</v>
+      </c>
+      <c r="M5">
+        <v>848.75641548700003</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>1.9775</v>
+      </c>
+      <c r="B6">
+        <v>-1.0640000000000001</v>
+      </c>
+      <c r="C6">
+        <v>-0.90300000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1.0117499999999999</v>
+      </c>
+      <c r="E6">
+        <v>12500</v>
+      </c>
+      <c r="F6">
+        <v>2500</v>
+      </c>
+      <c r="G6">
+        <v>4880</v>
+      </c>
+      <c r="H6">
+        <v>12338.022109699999</v>
+      </c>
+      <c r="I6">
+        <v>-50.070574071700001</v>
+      </c>
+      <c r="J6">
+        <v>3648.709398</v>
+      </c>
+      <c r="K6">
+        <v>161.977890304</v>
+      </c>
+      <c r="L6">
+        <v>2550.07057407</v>
+      </c>
+      <c r="M6">
+        <v>1231.290602</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>1.8865000000000001</v>
+      </c>
+      <c r="B7">
+        <v>-0.96899999999999997</v>
+      </c>
+      <c r="C7">
+        <v>-0.91349999999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.0734999999999999</v>
+      </c>
+      <c r="E7">
+        <v>12500</v>
+      </c>
+      <c r="F7">
+        <v>2500</v>
+      </c>
+      <c r="G7">
+        <v>4880</v>
+      </c>
+      <c r="H7">
+        <v>12901.192645200001</v>
+      </c>
+      <c r="I7">
+        <v>165.528081321</v>
+      </c>
+      <c r="J7">
+        <v>3546.8228237100002</v>
+      </c>
+      <c r="K7">
+        <v>401.19264518300002</v>
+      </c>
+      <c r="L7">
+        <v>2334.4719186799998</v>
+      </c>
+      <c r="M7">
+        <v>1333.17717629</v>
+      </c>
+      <c r="N7">
+        <v>12</v>
+      </c>
+      <c r="O7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>1.9984999999999999</v>
+      </c>
+      <c r="B8">
+        <v>-1.0925</v>
+      </c>
+      <c r="C8">
+        <v>-0.91349999999999998</v>
+      </c>
+      <c r="D8">
+        <v>1.083</v>
+      </c>
+      <c r="E8">
+        <v>12500</v>
+      </c>
+      <c r="F8">
+        <v>2500</v>
+      </c>
+      <c r="G8">
+        <v>4880</v>
+      </c>
+      <c r="H8">
+        <v>12453.2437809</v>
+      </c>
+      <c r="I8">
+        <v>-198.93420802</v>
+      </c>
+      <c r="J8">
+        <v>3444.3244542100001</v>
+      </c>
+      <c r="K8">
+        <v>46.756219141000003</v>
+      </c>
+      <c r="L8">
+        <v>2698.9342080199999</v>
+      </c>
+      <c r="M8">
+        <v>1435.6755457899999</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="B9">
+        <v>-1.0069999999999999</v>
+      </c>
+      <c r="C9">
+        <v>-0.87849999999999995</v>
+      </c>
+      <c r="D9">
+        <v>1.0545</v>
+      </c>
+      <c r="E9">
+        <v>12500</v>
+      </c>
+      <c r="F9">
+        <v>2500</v>
+      </c>
+      <c r="G9">
+        <v>4880</v>
+      </c>
+      <c r="H9">
+        <v>12803.499338699999</v>
+      </c>
+      <c r="I9">
+        <v>35.019560581599997</v>
+      </c>
+      <c r="J9">
+        <v>3424.2636035099999</v>
+      </c>
+      <c r="K9">
+        <v>303.49933865600002</v>
+      </c>
+      <c r="L9">
+        <v>2464.98043942</v>
+      </c>
+      <c r="M9">
+        <v>1455.7363964900001</v>
+      </c>
+      <c r="N9">
+        <v>12</v>
+      </c>
+      <c r="O9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="B10">
+        <v>-0.49399999999999999</v>
+      </c>
+      <c r="C10">
+        <v>-1.19</v>
+      </c>
+      <c r="D10">
+        <v>0.84075</v>
+      </c>
+      <c r="E10">
+        <v>12500</v>
+      </c>
+      <c r="F10">
+        <v>2500</v>
+      </c>
+      <c r="G10">
+        <v>7320</v>
+      </c>
+      <c r="H10">
+        <v>14616.354413999999</v>
+      </c>
+      <c r="I10">
+        <v>1875.7958773099999</v>
+      </c>
+      <c r="J10">
+        <v>6458.26686634</v>
+      </c>
+      <c r="K10">
+        <v>2116.35441399</v>
+      </c>
+      <c r="L10">
+        <v>624.20412269400003</v>
+      </c>
+      <c r="M10">
+        <v>861.733133662</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>1.155</v>
+      </c>
+      <c r="B11">
+        <v>-0.27550000000000002</v>
+      </c>
+      <c r="C11">
+        <v>-1.2284999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.73624999999999996</v>
+      </c>
+      <c r="E11">
+        <v>12500</v>
+      </c>
+      <c r="F11">
+        <v>2500</v>
+      </c>
+      <c r="G11">
+        <v>7320</v>
+      </c>
+      <c r="H11">
+        <v>13238.3272624</v>
+      </c>
+      <c r="I11">
+        <v>2827.35041125</v>
+      </c>
+      <c r="J11">
+        <v>6518.8022871399999</v>
+      </c>
+      <c r="K11">
+        <v>738.32726243800005</v>
+      </c>
+      <c r="L11">
+        <v>327.35041125200001</v>
+      </c>
+      <c r="M11">
+        <v>801.19771285599995</v>
+      </c>
+      <c r="N11">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="B12">
         <v>-0.35625000000000001</v>
       </c>
-      <c r="C2">
-        <v>1.2495000000000001</v>
-      </c>
-      <c r="D2">
+      <c r="C12">
+        <v>-1.2495000000000001</v>
+      </c>
+      <c r="D12">
         <v>0.74099999999999999</v>
       </c>
-      <c r="F2">
+      <c r="E12">
         <v>12500</v>
       </c>
-      <c r="G2">
+      <c r="F12">
         <v>2500</v>
       </c>
-      <c r="H2">
+      <c r="G12">
         <v>7320</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>-1.9319999999999999</v>
-      </c>
-      <c r="B3">
+      <c r="H12">
+        <v>13366.741976200001</v>
+      </c>
+      <c r="I12">
+        <v>2527.8627902399999</v>
+      </c>
+      <c r="J12">
+        <v>6700.0849466600002</v>
+      </c>
+      <c r="K12">
+        <v>866.74197618200003</v>
+      </c>
+      <c r="L12">
+        <v>27.862790238500001</v>
+      </c>
+      <c r="M12">
+        <v>619.91505333700002</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>1.9215</v>
+      </c>
+      <c r="B13">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="C13">
+        <v>-0.57399999999999995</v>
+      </c>
+      <c r="D13">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E13">
+        <v>12500</v>
+      </c>
+      <c r="F13">
+        <v>7500</v>
+      </c>
+      <c r="G13">
+        <v>2440</v>
+      </c>
+      <c r="H13">
+        <v>12613.7582004</v>
+      </c>
+      <c r="I13">
+        <v>7776.5984871399996</v>
+      </c>
+      <c r="J13">
+        <v>3647.5138523599999</v>
+      </c>
+      <c r="K13">
+        <v>113.758200448</v>
+      </c>
+      <c r="L13">
+        <v>276.59848713899999</v>
+      </c>
+      <c r="M13">
+        <v>1207.5138523600001</v>
+      </c>
+      <c r="N13">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>1.9424999999999999</v>
+      </c>
+      <c r="B14">
+        <v>1.22075</v>
+      </c>
+      <c r="C14">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="D14">
+        <v>0.1045</v>
+      </c>
+      <c r="E14">
+        <v>12500</v>
+      </c>
+      <c r="F14">
+        <v>7500</v>
+      </c>
+      <c r="G14">
+        <v>2440</v>
+      </c>
+      <c r="H14">
+        <v>12465.5069042</v>
+      </c>
+      <c r="I14">
+        <v>8313.3540043100002</v>
+      </c>
+      <c r="J14">
+        <v>3688.5083762999998</v>
+      </c>
+      <c r="K14">
+        <v>34.493095820800001</v>
+      </c>
+      <c r="L14">
+        <v>813.35400431300002</v>
+      </c>
+      <c r="M14">
+        <v>1248.5083763</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="B15">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C15">
+        <v>-0.58799999999999997</v>
+      </c>
+      <c r="D15">
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>12500</v>
+      </c>
+      <c r="F15">
+        <v>7500</v>
+      </c>
+      <c r="G15">
+        <v>2440</v>
+      </c>
+      <c r="H15">
+        <v>12431.200448699999</v>
+      </c>
+      <c r="I15">
+        <v>8001.2796624800003</v>
+      </c>
+      <c r="J15">
+        <v>3767.8404696299999</v>
+      </c>
+      <c r="K15">
+        <v>68.799551319000003</v>
+      </c>
+      <c r="L15">
+        <v>501.27966247500001</v>
+      </c>
+      <c r="M15">
+        <v>1327.8404696299999</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>1.9285000000000001</v>
+      </c>
+      <c r="B16">
+        <v>1.1685000000000001</v>
+      </c>
+      <c r="C16">
+        <v>-0.58099999999999996</v>
+      </c>
+      <c r="D16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>12500</v>
+      </c>
+      <c r="F16">
+        <v>7500</v>
+      </c>
+      <c r="G16">
+        <v>2440</v>
+      </c>
+      <c r="H16">
+        <v>12468.0037123</v>
+      </c>
+      <c r="I16">
+        <v>8116.8549834799996</v>
+      </c>
+      <c r="J16">
+        <v>3749.7502132499999</v>
+      </c>
+      <c r="K16">
+        <v>31.996287673600001</v>
+      </c>
+      <c r="L16">
+        <v>616.85498348399994</v>
+      </c>
+      <c r="M16">
+        <v>1309.7502132499999</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="B17">
+        <v>1.4724999999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.89249999999999996</v>
+      </c>
+      <c r="D17">
+        <v>-0.20424999999999999</v>
+      </c>
+      <c r="E17">
+        <v>12500</v>
+      </c>
+      <c r="F17">
+        <v>7500</v>
+      </c>
+      <c r="G17">
+        <v>4880</v>
+      </c>
+      <c r="H17">
+        <v>12072.5494856</v>
+      </c>
+      <c r="I17">
+        <v>8796.8197212699997</v>
+      </c>
+      <c r="J17">
+        <v>6550.7122018199998</v>
+      </c>
+      <c r="K17">
+        <v>427.45051441499999</v>
+      </c>
+      <c r="L17">
+        <v>1296.8197212699999</v>
+      </c>
+      <c r="M17">
+        <v>1670.71220182</v>
+      </c>
+      <c r="N17">
+        <v>12</v>
+      </c>
+      <c r="O17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18">
+        <v>1.3055000000000001</v>
+      </c>
+      <c r="B18">
+        <v>1.3347500000000001</v>
+      </c>
+      <c r="C18">
+        <v>-0.87150000000000005</v>
+      </c>
+      <c r="D18">
+        <v>-0.20424999999999999</v>
+      </c>
+      <c r="E18">
+        <v>12500</v>
+      </c>
+      <c r="F18">
+        <v>7500</v>
+      </c>
+      <c r="G18">
+        <v>4880</v>
+      </c>
+      <c r="H18">
+        <v>12516.056241599999</v>
+      </c>
+      <c r="I18">
+        <v>8482.1136335699994</v>
+      </c>
+      <c r="J18">
+        <v>6388.9606928599997</v>
+      </c>
+      <c r="K18">
+        <v>16.056241629700001</v>
+      </c>
+      <c r="L18">
+        <v>982.113633574</v>
+      </c>
+      <c r="M18">
+        <v>1508.9606928600001</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19">
+        <v>1.3334999999999999</v>
+      </c>
+      <c r="B19">
+        <v>1.44875</v>
+      </c>
+      <c r="C19">
+        <v>-0.92400000000000004</v>
+      </c>
+      <c r="D19">
+        <v>-0.2185</v>
+      </c>
+      <c r="E19">
+        <v>12500</v>
+      </c>
+      <c r="F19">
+        <v>7500</v>
+      </c>
+      <c r="G19">
+        <v>4880</v>
+      </c>
+      <c r="H19">
+        <v>11935.737157</v>
+      </c>
+      <c r="I19">
+        <v>8656.9551049599995</v>
+      </c>
+      <c r="J19">
+        <v>6690.23645063</v>
+      </c>
+      <c r="K19">
+        <v>564.26284302199997</v>
+      </c>
+      <c r="L19">
+        <v>1156.95510496</v>
+      </c>
+      <c r="M19">
+        <v>1810.23645063</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B20">
+        <v>1.3062499999999999</v>
+      </c>
+      <c r="C20">
+        <v>-1.232</v>
+      </c>
+      <c r="D20">
+        <v>4.2750000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>12500</v>
+      </c>
+      <c r="F20">
+        <v>7500</v>
+      </c>
+      <c r="G20">
+        <v>7320</v>
+      </c>
+      <c r="H20">
+        <v>11791.041869299999</v>
+      </c>
+      <c r="I20">
+        <v>7915.9968309400001</v>
+      </c>
+      <c r="J20">
+        <v>9014.4598033799994</v>
+      </c>
+      <c r="K20">
+        <v>708.958130676</v>
+      </c>
+      <c r="L20">
+        <v>415.99683094</v>
+      </c>
+      <c r="M20">
+        <v>1694.45980338</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="B21">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="C21">
+        <v>-1.232</v>
+      </c>
+      <c r="D21">
+        <v>5.2249999999999998E-2</v>
+      </c>
+      <c r="E21">
+        <v>12500</v>
+      </c>
+      <c r="F21">
+        <v>7500</v>
+      </c>
+      <c r="G21">
+        <v>7320</v>
+      </c>
+      <c r="H21">
+        <v>11597.028212499999</v>
+      </c>
+      <c r="I21">
+        <v>7771.3479267399998</v>
+      </c>
+      <c r="J21">
+        <v>8851.2677145800008</v>
+      </c>
+      <c r="K21">
+        <v>902.97178750499995</v>
+      </c>
+      <c r="L21">
+        <v>271.34792674099998</v>
+      </c>
+      <c r="M21">
+        <v>1531.2677145800001</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="B22">
+        <v>-1.4392499999999999</v>
+      </c>
+      <c r="C22">
+        <v>-0.85399999999999998</v>
+      </c>
+      <c r="D22">
+        <v>1.2397499999999999</v>
+      </c>
+      <c r="E22">
+        <v>15000</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>7320</v>
+      </c>
+      <c r="H22">
+        <v>20486.026379999999</v>
+      </c>
+      <c r="I22">
+        <v>-3507.68686428</v>
+      </c>
+      <c r="J22">
+        <v>8996.4585412600009</v>
+      </c>
+      <c r="K22">
+        <v>5486.0263799599998</v>
+      </c>
+      <c r="L22">
+        <v>3507.68686428</v>
+      </c>
+      <c r="M22">
+        <v>1676.4585412599999</v>
+      </c>
+      <c r="N22">
+        <v>12</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="B23">
+        <v>-1.42025</v>
+      </c>
+      <c r="C23">
+        <v>-0.86099999999999999</v>
+      </c>
+      <c r="D23">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="E23">
+        <v>15000</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>7320</v>
+      </c>
+      <c r="H23">
+        <v>20384.710615399999</v>
+      </c>
+      <c r="I23">
+        <v>-3371.1329283300001</v>
+      </c>
+      <c r="J23">
+        <v>9064.4344520800005</v>
+      </c>
+      <c r="K23">
+        <v>5384.7106154000003</v>
+      </c>
+      <c r="L23">
+        <v>3371.1329283300001</v>
+      </c>
+      <c r="M23">
+        <v>1744.43445208</v>
+      </c>
+      <c r="N23">
+        <v>12</v>
+      </c>
+      <c r="O23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24">
+        <v>-7.3499999999999996E-2</v>
+      </c>
+      <c r="B24">
+        <v>-1.38225</v>
+      </c>
+      <c r="C24">
+        <v>-0.84350000000000003</v>
+      </c>
+      <c r="D24">
+        <v>1.15425</v>
+      </c>
+      <c r="E24">
+        <v>15000</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>7320</v>
+      </c>
+      <c r="H24">
+        <v>20430.013058699999</v>
+      </c>
+      <c r="I24">
+        <v>-3199.7092539099999</v>
+      </c>
+      <c r="J24">
+        <v>8994.9246169500002</v>
+      </c>
+      <c r="K24">
+        <v>5430.0130587399999</v>
+      </c>
+      <c r="L24">
+        <v>3199.7092539099999</v>
+      </c>
+      <c r="M24">
+        <v>1674.92461695</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
+      </c>
+      <c r="O24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="B25">
+        <v>1.4962500000000001</v>
+      </c>
+      <c r="C25">
+        <v>-0.21</v>
+      </c>
+      <c r="D25">
+        <v>-0.92149999999999999</v>
+      </c>
+      <c r="E25">
+        <v>15000</v>
+      </c>
+      <c r="F25">
+        <v>10000</v>
+      </c>
+      <c r="G25">
+        <v>2440</v>
+      </c>
+      <c r="H25">
+        <v>19200.8674331</v>
+      </c>
+      <c r="I25">
+        <v>11499.987867100001</v>
+      </c>
+      <c r="J25">
+        <v>4662.3579550499999</v>
+      </c>
+      <c r="K25">
+        <v>4200.8674330900003</v>
+      </c>
+      <c r="L25">
+        <v>1499.9878670799999</v>
+      </c>
+      <c r="M25">
+        <v>2222.3579550499999</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
+      </c>
+      <c r="O25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="B26">
+        <v>1.47725</v>
+      </c>
+      <c r="C26">
+        <v>-0.2485</v>
+      </c>
+      <c r="D26">
+        <v>-0.92149999999999999</v>
+      </c>
+      <c r="E26">
+        <v>15000</v>
+      </c>
+      <c r="F26">
+        <v>10000</v>
+      </c>
+      <c r="G26">
+        <v>2440</v>
+      </c>
+      <c r="H26">
+        <v>19074.4445347</v>
+      </c>
+      <c r="I26">
+        <v>11346.2206284</v>
+      </c>
+      <c r="J26">
+        <v>4791.90727522</v>
+      </c>
+      <c r="K26">
+        <v>4074.44453471</v>
+      </c>
+      <c r="L26">
+        <v>1346.2206284399999</v>
+      </c>
+      <c r="M26">
+        <v>2351.90727522</v>
+      </c>
+      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="B27">
+        <v>1.4724999999999999</v>
+      </c>
+      <c r="C27">
+        <v>-0.224</v>
+      </c>
+      <c r="D27">
+        <v>-0.92625000000000002</v>
+      </c>
+      <c r="E27">
+        <v>15000</v>
+      </c>
+      <c r="F27">
+        <v>10000</v>
+      </c>
+      <c r="G27">
+        <v>2440</v>
+      </c>
+      <c r="H27">
+        <v>19512.496185200001</v>
+      </c>
+      <c r="I27">
+        <v>11454.516534300001</v>
+      </c>
+      <c r="J27">
+        <v>4917.4233410099996</v>
+      </c>
+      <c r="K27">
+        <v>4512.4961852400002</v>
+      </c>
+      <c r="L27">
+        <v>1454.5165342499999</v>
+      </c>
+      <c r="M27">
+        <v>2477.4233410100001</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B28">
+        <v>1.4724999999999999</v>
+      </c>
+      <c r="C28">
+        <v>-0.217</v>
+      </c>
+      <c r="D28">
+        <v>-0.90725</v>
+      </c>
+      <c r="E28">
+        <v>15000</v>
+      </c>
+      <c r="F28">
+        <v>10000</v>
+      </c>
+      <c r="G28">
+        <v>2440</v>
+      </c>
+      <c r="H28">
+        <v>19535.856746500001</v>
+      </c>
+      <c r="I28">
+        <v>11461.454393399999</v>
+      </c>
+      <c r="J28">
+        <v>4925.2818890899998</v>
+      </c>
+      <c r="K28">
+        <v>4535.8567464899998</v>
+      </c>
+      <c r="L28">
+        <v>1461.4543934200001</v>
+      </c>
+      <c r="M28">
+        <v>2485.2818890899998</v>
+      </c>
+      <c r="N28">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="B29">
+        <v>1.4962500000000001</v>
+      </c>
+      <c r="C29">
+        <v>-0.61250000000000004</v>
+      </c>
+      <c r="D29">
+        <v>-0.83599999999999997</v>
+      </c>
+      <c r="E29">
+        <v>15000</v>
+      </c>
+      <c r="F29">
+        <v>10000</v>
+      </c>
+      <c r="G29">
+        <v>4880</v>
+      </c>
+      <c r="H29">
+        <v>18542.110105299998</v>
+      </c>
+      <c r="I29">
+        <v>10994.7880723</v>
+      </c>
+      <c r="J29">
+        <v>7223.9934613599999</v>
+      </c>
+      <c r="K29">
+        <v>3542.1101053399998</v>
+      </c>
+      <c r="L29">
+        <v>994.78807229799997</v>
+      </c>
+      <c r="M29">
+        <v>2343.9934613599999</v>
+      </c>
+      <c r="N29">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30">
+        <v>0.26950000000000002</v>
+      </c>
+      <c r="B30">
+        <v>1.47725</v>
+      </c>
+      <c r="C30">
+        <v>-0.5635</v>
+      </c>
+      <c r="D30">
+        <v>-0.90249999999999997</v>
+      </c>
+      <c r="E30">
+        <v>15000</v>
+      </c>
+      <c r="F30">
+        <v>10000</v>
+      </c>
+      <c r="G30">
+        <v>4880</v>
+      </c>
+      <c r="H30">
+        <v>19618.128723599999</v>
+      </c>
+      <c r="I30">
+        <v>11239.7998857</v>
+      </c>
+      <c r="J30">
+        <v>7444.3233759699997</v>
+      </c>
+      <c r="K30">
+        <v>4618.1287235600003</v>
+      </c>
+      <c r="L30">
+        <v>1239.7998857299999</v>
+      </c>
+      <c r="M30">
+        <v>2564.3233759700001</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="B31">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="C31">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="D31">
+        <v>-0.84075</v>
+      </c>
+      <c r="E31">
+        <v>15000</v>
+      </c>
+      <c r="F31">
+        <v>10000</v>
+      </c>
+      <c r="G31">
+        <v>4880</v>
+      </c>
+      <c r="H31">
+        <v>19314.856781099999</v>
+      </c>
+      <c r="I31">
+        <v>11050.8877333</v>
+      </c>
+      <c r="J31">
+        <v>7601.9361259500001</v>
+      </c>
+      <c r="K31">
+        <v>4314.8567810799996</v>
+      </c>
+      <c r="L31">
+        <v>1050.8877332500001</v>
+      </c>
+      <c r="M31">
+        <v>2721.9361259500001</v>
+      </c>
+      <c r="N31">
+        <v>12</v>
+      </c>
+      <c r="O31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32">
+        <v>0.31850000000000001</v>
+      </c>
+      <c r="B32">
+        <v>1.482</v>
+      </c>
+      <c r="C32">
+        <v>-0.58450000000000002</v>
+      </c>
+      <c r="D32">
+        <v>-0.87875000000000003</v>
+      </c>
+      <c r="E32">
+        <v>15000</v>
+      </c>
+      <c r="F32">
+        <v>10000</v>
+      </c>
+      <c r="G32">
+        <v>4880</v>
+      </c>
+      <c r="H32">
+        <v>19199.7046673</v>
+      </c>
+      <c r="I32">
+        <v>11133.3525118</v>
+      </c>
+      <c r="J32">
+        <v>7351.2860483900004</v>
+      </c>
+      <c r="K32">
+        <v>4199.70466734</v>
+      </c>
+      <c r="L32">
+        <v>1133.3525118299999</v>
+      </c>
+      <c r="M32">
+        <v>2471.2860483899999</v>
+      </c>
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="B33">
+        <v>1.1352500000000001</v>
+      </c>
+      <c r="C33">
+        <v>-1.0115000000000001</v>
+      </c>
+      <c r="D33">
+        <v>-0.88824999999999998</v>
+      </c>
+      <c r="E33">
+        <v>15000</v>
+      </c>
+      <c r="F33">
+        <v>10000</v>
+      </c>
+      <c r="G33">
+        <v>7320</v>
+      </c>
+      <c r="H33">
+        <v>20703.2609018</v>
+      </c>
+      <c r="I33">
+        <v>9607.65058322</v>
+      </c>
+      <c r="J33">
+        <v>9786.69782098</v>
+      </c>
+      <c r="K33">
+        <v>5703.2609018000003</v>
+      </c>
+      <c r="L33">
+        <v>392.34941677699999</v>
+      </c>
+      <c r="M33">
+        <v>2466.69782098</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34">
+        <v>-0.308</v>
+      </c>
+      <c r="B34">
+        <v>1.2017500000000001</v>
+      </c>
+      <c r="C34">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D34">
+        <v>-0.78374999999999995</v>
+      </c>
+      <c r="E34">
+        <v>15000</v>
+      </c>
+      <c r="F34">
+        <v>10000</v>
+      </c>
+      <c r="G34">
+        <v>7320</v>
+      </c>
+      <c r="H34">
+        <v>20972.882279699999</v>
+      </c>
+      <c r="I34">
+        <v>9992.9699204099998</v>
+      </c>
+      <c r="J34">
+        <v>10086.3117327</v>
+      </c>
+      <c r="K34">
+        <v>5972.8822796599998</v>
+      </c>
+      <c r="L34">
+        <v>7.0300795915899998</v>
+      </c>
+      <c r="M34">
+        <v>2766.3117326500001</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="B35">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="C35">
+        <v>-0.95550000000000002</v>
+      </c>
+      <c r="D35">
+        <v>-0.88349999999999995</v>
+      </c>
+      <c r="E35">
+        <v>15000</v>
+      </c>
+      <c r="F35">
+        <v>10000</v>
+      </c>
+      <c r="G35">
+        <v>7320</v>
+      </c>
+      <c r="H35">
+        <v>19309.660305699999</v>
+      </c>
+      <c r="I35">
+        <v>10954.8599641</v>
+      </c>
+      <c r="J35">
+        <v>10153.7765686</v>
+      </c>
+      <c r="K35">
+        <v>4309.6603057399998</v>
+      </c>
+      <c r="L35">
+        <v>954.85996410200005</v>
+      </c>
+      <c r="M35">
+        <v>2833.7765686100001</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="B36">
+        <v>-6.1749999999999999E-2</v>
+      </c>
+      <c r="C36">
+        <v>-0.15049999999999999</v>
+      </c>
+      <c r="D36">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E36">
+        <v>15000</v>
+      </c>
+      <c r="F36">
+        <v>5000</v>
+      </c>
+      <c r="G36">
+        <v>2440</v>
+      </c>
+      <c r="H36">
+        <v>19700.600812199998</v>
+      </c>
+      <c r="I36">
+        <v>3499.88443448</v>
+      </c>
+      <c r="J36">
+        <v>3212.1496364700001</v>
+      </c>
+      <c r="K36">
+        <v>4700.6008121499999</v>
+      </c>
+      <c r="L36">
+        <v>1500.11556552</v>
+      </c>
+      <c r="M36">
+        <v>772.14963646599995</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>0.98350000000000004</v>
+      </c>
+      <c r="B37">
+        <v>-2.375E-2</v>
+      </c>
+      <c r="C37">
+        <v>-0.14349999999999999</v>
+      </c>
+      <c r="D37">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E37">
+        <v>15000</v>
+      </c>
+      <c r="F37">
+        <v>5000</v>
+      </c>
+      <c r="G37">
+        <v>2440</v>
+      </c>
+      <c r="H37">
+        <v>19837.917569400001</v>
+      </c>
+      <c r="I37">
+        <v>3702.3348331900002</v>
+      </c>
+      <c r="J37">
+        <v>3235.5258656599999</v>
+      </c>
+      <c r="K37">
+        <v>4837.9175693699999</v>
+      </c>
+      <c r="L37">
+        <v>1297.6651668100001</v>
+      </c>
+      <c r="M37">
+        <v>795.52586565900003</v>
+      </c>
+      <c r="N37">
+        <v>12</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="B38">
+        <v>-7.1249999999999994E-2</v>
+      </c>
+      <c r="C38">
+        <v>-0.154</v>
+      </c>
+      <c r="D38">
+        <v>0.31824999999999998</v>
+      </c>
+      <c r="E38">
+        <v>15000</v>
+      </c>
+      <c r="F38">
+        <v>5000</v>
+      </c>
+      <c r="G38">
+        <v>2440</v>
+      </c>
+      <c r="H38">
+        <v>19733.054041899999</v>
+      </c>
+      <c r="I38">
+        <v>3448.6937777500002</v>
+      </c>
+      <c r="J38">
+        <v>3235.0317550700001</v>
+      </c>
+      <c r="K38">
+        <v>4733.0540419099998</v>
+      </c>
+      <c r="L38">
+        <v>1551.30622225</v>
+      </c>
+      <c r="M38">
+        <v>795.031755073</v>
+      </c>
+      <c r="N38">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="B39">
+        <v>0.17574999999999999</v>
+      </c>
+      <c r="C39">
+        <v>-0.54600000000000004</v>
+      </c>
+      <c r="D39">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E39">
+        <v>15000</v>
+      </c>
+      <c r="F39">
+        <v>5000</v>
+      </c>
+      <c r="G39">
+        <v>4880</v>
+      </c>
+      <c r="H39">
+        <v>20375.239053199999</v>
+      </c>
+      <c r="I39">
+        <v>4758.40968118</v>
+      </c>
+      <c r="J39">
+        <v>6150.7503767199996</v>
+      </c>
+      <c r="K39">
+        <v>5375.2390531700003</v>
+      </c>
+      <c r="L39">
+        <v>241.59031881600001</v>
+      </c>
+      <c r="M39">
+        <v>1270.7503767200001</v>
+      </c>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="B40">
+        <v>0.22325</v>
+      </c>
+      <c r="C40">
+        <v>-0.56699999999999995</v>
+      </c>
+      <c r="D40">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E40">
+        <v>15000</v>
+      </c>
+      <c r="F40">
+        <v>5000</v>
+      </c>
+      <c r="G40">
+        <v>4880</v>
+      </c>
+      <c r="H40">
+        <v>21065.569778500001</v>
+      </c>
+      <c r="I40">
+        <v>5037.4378061099997</v>
+      </c>
+      <c r="J40">
+        <v>6564.2385802099998</v>
+      </c>
+      <c r="K40">
+        <v>6065.5697784900003</v>
+      </c>
+      <c r="L40">
+        <v>37.437806112200001</v>
+      </c>
+      <c r="M40">
+        <v>1684.23858021</v>
+      </c>
+      <c r="N40">
+        <v>12</v>
+      </c>
+      <c r="O40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>0.371</v>
+      </c>
+      <c r="B41">
+        <v>0.25174999999999997</v>
+      </c>
+      <c r="C41">
+        <v>-0.52849999999999997</v>
+      </c>
+      <c r="D41">
+        <v>-1.4250000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>15000</v>
+      </c>
+      <c r="F41">
+        <v>5000</v>
+      </c>
+      <c r="G41">
+        <v>4880</v>
+      </c>
+      <c r="H41">
+        <v>20960.908481300001</v>
+      </c>
+      <c r="I41">
+        <v>5190.1014831299999</v>
+      </c>
+      <c r="J41">
+        <v>6321.8816333100003</v>
+      </c>
+      <c r="K41">
+        <v>5960.9084812999999</v>
+      </c>
+      <c r="L41">
+        <v>190.10148312800001</v>
+      </c>
+      <c r="M41">
+        <v>1441.8816333100001</v>
+      </c>
+      <c r="N41">
+        <v>12</v>
+      </c>
+      <c r="O41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>-0.1925</v>
+      </c>
+      <c r="B42">
+        <v>7.1249999999999994E-2</v>
+      </c>
+      <c r="C42">
+        <v>-0.92749999999999999</v>
+      </c>
+      <c r="D42">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E42">
+        <v>15000</v>
+      </c>
+      <c r="F42">
+        <v>5000</v>
+      </c>
+      <c r="G42">
+        <v>7320</v>
+      </c>
+      <c r="H42">
+        <v>22772.9049915</v>
+      </c>
+      <c r="I42">
+        <v>4230.2468979699997</v>
+      </c>
+      <c r="J42">
+        <v>8977.6560580099995</v>
+      </c>
+      <c r="K42">
+        <v>7772.9049915300002</v>
+      </c>
+      <c r="L42">
+        <v>769.75310202900005</v>
+      </c>
+      <c r="M42">
+        <v>1657.6560580099999</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>-0.224</v>
+      </c>
+      <c r="B43">
+        <v>-1.4250000000000001E-2</v>
+      </c>
+      <c r="C43">
+        <v>-0.97650000000000003</v>
+      </c>
+      <c r="D43">
+        <v>7.1249999999999994E-2</v>
+      </c>
+      <c r="E43">
+        <v>15000</v>
+      </c>
+      <c r="F43">
+        <v>5000</v>
+      </c>
+      <c r="G43">
+        <v>7320</v>
+      </c>
+      <c r="H43">
+        <v>22687.627549100001</v>
+      </c>
+      <c r="I43">
+        <v>3750.4414117199999</v>
+      </c>
+      <c r="J43">
+        <v>9183.3100344499999</v>
+      </c>
+      <c r="K43">
+        <v>7687.6275490999997</v>
+      </c>
+      <c r="L43">
+        <v>1249.5585882800001</v>
+      </c>
+      <c r="M43">
+        <v>1863.3100344500001</v>
+      </c>
+      <c r="N43">
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>-0.2485</v>
+      </c>
+      <c r="B44">
+        <v>-4.7499999999999999E-3</v>
+      </c>
+      <c r="C44">
+        <v>-0.91700000000000004</v>
+      </c>
+      <c r="D44">
+        <v>0.247</v>
+      </c>
+      <c r="E44">
+        <v>15000</v>
+      </c>
+      <c r="F44">
+        <v>5000</v>
+      </c>
+      <c r="G44">
+        <v>7320</v>
+      </c>
+      <c r="H44">
+        <v>23632.920990899998</v>
+      </c>
+      <c r="I44">
+        <v>3802.42688954</v>
+      </c>
+      <c r="J44">
+        <v>9077.9453199</v>
+      </c>
+      <c r="K44">
+        <v>8632.9209909000001</v>
+      </c>
+      <c r="L44">
+        <v>1197.57311046</v>
+      </c>
+      <c r="M44">
+        <v>1757.9453199</v>
+      </c>
+      <c r="N44">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>-0.154</v>
+      </c>
+      <c r="B45">
+        <v>4.2750000000000003E-2</v>
+      </c>
+      <c r="C45">
+        <v>-0.87849999999999995</v>
+      </c>
+      <c r="D45">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E45">
+        <v>15000</v>
+      </c>
+      <c r="F45">
+        <v>5000</v>
+      </c>
+      <c r="G45">
+        <v>7320</v>
+      </c>
+      <c r="H45">
+        <v>22802.483085899999</v>
+      </c>
+      <c r="I45">
+        <v>4071.1678115599998</v>
+      </c>
+      <c r="J45">
+        <v>8744.5040811800009</v>
+      </c>
+      <c r="K45">
+        <v>7802.48308593</v>
+      </c>
+      <c r="L45">
+        <v>928.83218844199996</v>
+      </c>
+      <c r="M45">
+        <v>1424.50408118</v>
+      </c>
+      <c r="N45">
+        <v>12</v>
+      </c>
+      <c r="O45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>0.1925</v>
+      </c>
+      <c r="B46">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0.52149999999999996</v>
+      </c>
+      <c r="D46">
+        <v>0.76475000000000004</v>
+      </c>
+      <c r="E46">
+        <v>20000</v>
+      </c>
+      <c r="F46">
+        <v>7500</v>
+      </c>
+      <c r="G46">
+        <v>2440</v>
+      </c>
+      <c r="H46">
+        <v>28304.958730300001</v>
+      </c>
+      <c r="I46">
+        <v>7520.1216372899999</v>
+      </c>
+      <c r="J46">
+        <v>4587.2102585800003</v>
+      </c>
+      <c r="K46">
+        <v>8304.9587303099997</v>
+      </c>
+      <c r="L46">
+        <v>20.1216372865</v>
+      </c>
+      <c r="M46">
+        <v>2147.2102585799998</v>
+      </c>
+      <c r="N46">
+        <v>12</v>
+      </c>
+      <c r="O46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="B47">
+        <v>0.54625000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="D47">
+        <v>0.76475000000000004</v>
+      </c>
+      <c r="E47">
+        <v>20000</v>
+      </c>
+      <c r="F47">
+        <v>7500</v>
+      </c>
+      <c r="G47">
+        <v>2440</v>
+      </c>
+      <c r="H47">
+        <v>28539.424049099998</v>
+      </c>
+      <c r="I47">
+        <v>7786.4073943399999</v>
+      </c>
+      <c r="J47">
+        <v>4634.2548729700002</v>
+      </c>
+      <c r="K47">
+        <v>8539.4240490600005</v>
+      </c>
+      <c r="L47">
+        <v>286.40739434300002</v>
+      </c>
+      <c r="M47">
+        <v>2194.2548729700002</v>
+      </c>
+      <c r="N47">
+        <v>12</v>
+      </c>
+      <c r="O47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="B48">
+        <v>0.66974999999999996</v>
+      </c>
+      <c r="C48">
+        <v>-0.1855</v>
+      </c>
+      <c r="D48">
+        <v>-0.91674999999999995</v>
+      </c>
+      <c r="E48">
+        <v>20000</v>
+      </c>
+      <c r="F48">
+        <v>7500</v>
+      </c>
+      <c r="G48">
+        <v>4880</v>
+      </c>
+      <c r="H48">
+        <v>27414.742103799999</v>
+      </c>
+      <c r="I48">
+        <v>8357.9926055399992</v>
+      </c>
+      <c r="J48">
+        <v>7725.7075086799996</v>
+      </c>
+      <c r="K48">
+        <v>7414.7421037699996</v>
+      </c>
+      <c r="L48">
+        <v>857.99260553900001</v>
+      </c>
+      <c r="M48">
+        <v>2845.70750868</v>
+      </c>
+      <c r="N48">
+        <v>12</v>
+      </c>
+      <c r="O48">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="B49">
+        <v>0.69350000000000001</v>
+      </c>
+      <c r="C49">
+        <v>-0.217</v>
+      </c>
+      <c r="D49">
         <v>-1.0069999999999999</v>
       </c>
-      <c r="C3">
-        <v>0.87849999999999995</v>
-      </c>
-      <c r="D3">
-        <v>1.0545</v>
-      </c>
-      <c r="F3">
-        <v>12500</v>
-      </c>
-      <c r="G3">
-        <v>2500</v>
-      </c>
-      <c r="H3">
+      <c r="E49">
+        <v>20000</v>
+      </c>
+      <c r="F49">
+        <v>7500</v>
+      </c>
+      <c r="G49">
         <v>4880</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
-        <v>-1.0009999999999999</v>
-      </c>
-      <c r="B4">
-        <v>-6.1749999999999999E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="D4">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="F4">
-        <v>15000</v>
-      </c>
-      <c r="G4">
-        <v>5000</v>
-      </c>
-      <c r="H4">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>0.1925</v>
-      </c>
-      <c r="B5">
-        <v>7.1249999999999994E-2</v>
-      </c>
-      <c r="C5">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="D5">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F5">
-        <v>15000</v>
-      </c>
-      <c r="G5">
-        <v>5000</v>
-      </c>
-      <c r="H5">
+      <c r="H49">
+        <v>27355.5356665</v>
+      </c>
+      <c r="I49">
+        <v>8508.4340386299991</v>
+      </c>
+      <c r="J49">
+        <v>7741.9358053699998</v>
+      </c>
+      <c r="K49">
+        <v>7355.5356665199997</v>
+      </c>
+      <c r="L49">
+        <v>1008.43403863</v>
+      </c>
+      <c r="M49">
+        <v>2861.9358053699998</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50">
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="B50">
+        <v>0.67925000000000002</v>
+      </c>
+      <c r="C50">
+        <v>-0.1925</v>
+      </c>
+      <c r="D50">
+        <v>-1.1875</v>
+      </c>
+      <c r="E50">
+        <v>20000</v>
+      </c>
+      <c r="F50">
+        <v>7500</v>
+      </c>
+      <c r="G50">
+        <v>4880</v>
+      </c>
+      <c r="H50">
+        <v>27801.040979900001</v>
+      </c>
+      <c r="I50">
+        <v>8494.3926198999998</v>
+      </c>
+      <c r="J50">
+        <v>7470.4613193900004</v>
+      </c>
+      <c r="K50">
+        <v>7801.0409799099998</v>
+      </c>
+      <c r="L50">
+        <v>994.39261990299997</v>
+      </c>
+      <c r="M50">
+        <v>2590.46131939</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="B51">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="C51">
+        <v>-0.22750000000000001</v>
+      </c>
+      <c r="D51">
+        <v>-1.0117499999999999</v>
+      </c>
+      <c r="E51">
+        <v>20000</v>
+      </c>
+      <c r="F51">
+        <v>7500</v>
+      </c>
+      <c r="G51">
+        <v>4880</v>
+      </c>
+      <c r="H51">
+        <v>26998.965097699998</v>
+      </c>
+      <c r="I51">
+        <v>8647.4899198500007</v>
+      </c>
+      <c r="J51">
+        <v>7646.1623591799998</v>
+      </c>
+      <c r="K51">
+        <v>6998.9650977399997</v>
+      </c>
+      <c r="L51">
+        <v>1147.48991985</v>
+      </c>
+      <c r="M51">
+        <v>2766.1623591799998</v>
+      </c>
+      <c r="N51">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52">
+        <v>-0.17150000000000001</v>
+      </c>
+      <c r="B52">
+        <v>0.73624999999999996</v>
+      </c>
+      <c r="C52">
+        <v>-0.189</v>
+      </c>
+      <c r="D52">
+        <v>-1.02125</v>
+      </c>
+      <c r="E52">
+        <v>20000</v>
+      </c>
+      <c r="F52">
+        <v>7500</v>
+      </c>
+      <c r="G52">
+        <v>4880</v>
+      </c>
+      <c r="H52">
+        <v>27169.0671243</v>
+      </c>
+      <c r="I52">
+        <v>8772.2017032500007</v>
+      </c>
+      <c r="J52">
+        <v>7622.7052344000003</v>
+      </c>
+      <c r="K52">
+        <v>7169.0671242600001</v>
+      </c>
+      <c r="L52">
+        <v>1272.20170325</v>
+      </c>
+      <c r="M52">
+        <v>2742.7052343999999</v>
+      </c>
+      <c r="N52">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53">
+        <v>-0.623</v>
+      </c>
+      <c r="B53">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="C53">
+        <v>-0.68600000000000005</v>
+      </c>
+      <c r="D53">
+        <v>-0.60799999999999998</v>
+      </c>
+      <c r="E53">
+        <v>20000</v>
+      </c>
+      <c r="F53">
+        <v>7500</v>
+      </c>
+      <c r="G53">
         <v>7320</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="B6">
-        <v>0.69350000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.217</v>
-      </c>
-      <c r="D6">
-        <v>-1.0069999999999999</v>
-      </c>
-      <c r="F6">
+      <c r="H53">
+        <v>29038.0157808</v>
+      </c>
+      <c r="I53">
+        <v>6597.20750365</v>
+      </c>
+      <c r="J53">
+        <v>10348.062177399999</v>
+      </c>
+      <c r="K53">
+        <v>9038.0157807699998</v>
+      </c>
+      <c r="L53">
+        <v>902.792496347</v>
+      </c>
+      <c r="M53">
+        <v>3028.0621773500002</v>
+      </c>
+      <c r="N53">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54">
+        <v>-0.61950000000000005</v>
+      </c>
+      <c r="B54">
+        <v>0.38</v>
+      </c>
+      <c r="C54">
+        <v>-0.70350000000000001</v>
+      </c>
+      <c r="D54">
+        <v>-0.73150000000000004</v>
+      </c>
+      <c r="E54">
         <v>20000</v>
       </c>
-      <c r="G6">
+      <c r="F54">
         <v>7500</v>
       </c>
-      <c r="H6">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
-        <v>-0.71314999999999995</v>
-      </c>
-      <c r="B7">
-        <v>1.4724999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.224</v>
-      </c>
-      <c r="D7">
-        <v>-0.96250000000000002</v>
-      </c>
-      <c r="F7">
-        <v>15000</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
-        <v>0.308</v>
-      </c>
-      <c r="B8">
-        <v>1.2017500000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="D8">
-        <v>-0.78374999999999995</v>
-      </c>
-      <c r="F8">
-        <v>15000</v>
-      </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
-      <c r="H8">
+      <c r="G54">
         <v>7320</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>-0.371</v>
-      </c>
-      <c r="B9">
-        <v>0.25174999999999997</v>
-      </c>
-      <c r="C9">
-        <v>0.52849999999999997</v>
-      </c>
-      <c r="D9">
-        <v>-1.4250000000000001E-2</v>
-      </c>
-      <c r="F9">
-        <v>15000</v>
-      </c>
-      <c r="G9">
-        <v>5000</v>
-      </c>
-      <c r="H9">
-        <v>4880</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>-1.3049999999999999</v>
-      </c>
-      <c r="B10">
-        <v>1.3347500000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.87150000000000005</v>
-      </c>
-      <c r="D10">
-        <v>-0.20424999999999999</v>
-      </c>
-      <c r="F10">
-        <v>12500</v>
-      </c>
-      <c r="G10">
+      <c r="H54">
+        <v>29390.5868137</v>
+      </c>
+      <c r="I54">
+        <v>6498.1236227700001</v>
+      </c>
+      <c r="J54">
+        <v>10264.0143021</v>
+      </c>
+      <c r="K54">
+        <v>9390.5868136499994</v>
+      </c>
+      <c r="L54">
+        <v>1001.87637723</v>
+      </c>
+      <c r="M54">
+        <v>2944.0143020800001</v>
+      </c>
+      <c r="N54">
+        <v>12</v>
+      </c>
+      <c r="O54">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55">
+        <v>-0.53549999999999998</v>
+      </c>
+      <c r="B55">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="C55">
+        <v>-0.6825</v>
+      </c>
+      <c r="D55">
+        <v>-0.73624999999999996</v>
+      </c>
+      <c r="E55">
+        <v>20000</v>
+      </c>
+      <c r="F55">
         <v>7500</v>
       </c>
-      <c r="H10">
-        <v>4880</v>
+      <c r="G55">
+        <v>7320</v>
+      </c>
+      <c r="H55">
+        <v>28504.200669900001</v>
+      </c>
+      <c r="I55">
+        <v>6629.0880018300004</v>
+      </c>
+      <c r="J55">
+        <v>9836.5643373500006</v>
+      </c>
+      <c r="K55">
+        <v>8504.2006699100002</v>
+      </c>
+      <c r="L55">
+        <v>870.91199817400002</v>
+      </c>
+      <c r="M55">
+        <v>2516.5643373500002</v>
+      </c>
+      <c r="N55">
+        <v>12</v>
+      </c>
+      <c r="O55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56">
+        <v>-0.50749999999999995</v>
+      </c>
+      <c r="B56">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C56">
+        <v>-0.72099999999999997</v>
+      </c>
+      <c r="D56">
+        <v>-0.74099999999999999</v>
+      </c>
+      <c r="E56">
+        <v>20000</v>
+      </c>
+      <c r="F56">
+        <v>7500</v>
+      </c>
+      <c r="G56">
+        <v>7320</v>
+      </c>
+      <c r="H56">
+        <v>27630.374239699999</v>
+      </c>
+      <c r="I56">
+        <v>6991.5514911199998</v>
+      </c>
+      <c r="J56">
+        <v>9814.0514853299992</v>
+      </c>
+      <c r="K56">
+        <v>7630.3742396899997</v>
+      </c>
+      <c r="L56">
+        <v>508.44850888299999</v>
+      </c>
+      <c r="M56">
+        <v>2494.0514853300001</v>
+      </c>
+      <c r="N56">
+        <v>12</v>
+      </c>
+      <c r="O56">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57">
+        <v>-0.53200000000000003</v>
+      </c>
+      <c r="B57">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="C57">
+        <v>-0.71050000000000002</v>
+      </c>
+      <c r="D57">
+        <v>-0.76949999999999996</v>
+      </c>
+      <c r="E57">
+        <v>20000</v>
+      </c>
+      <c r="F57">
+        <v>7500</v>
+      </c>
+      <c r="G57">
+        <v>7320</v>
+      </c>
+      <c r="H57">
+        <v>28303.0341974</v>
+      </c>
+      <c r="I57">
+        <v>6739.3613792799997</v>
+      </c>
+      <c r="J57">
+        <v>9850.6498764400003</v>
+      </c>
+      <c r="K57">
+        <v>8303.0341973899995</v>
+      </c>
+      <c r="L57">
+        <v>760.63862072300003</v>
+      </c>
+      <c r="M57">
+        <v>2530.6498764399998</v>
+      </c>
+      <c r="N57">
+        <v>12</v>
+      </c>
+      <c r="O57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58">
+        <v>-0.60199999999999998</v>
+      </c>
+      <c r="B58">
+        <v>0.46074999999999999</v>
+      </c>
+      <c r="C58">
+        <v>-0.74550000000000005</v>
+      </c>
+      <c r="D58">
+        <v>-0.73624999999999996</v>
+      </c>
+      <c r="E58">
+        <v>20000</v>
+      </c>
+      <c r="F58">
+        <v>7500</v>
+      </c>
+      <c r="G58">
+        <v>7320</v>
+      </c>
+      <c r="H58">
+        <v>28449.489752599999</v>
+      </c>
+      <c r="I58">
+        <v>6965.5617229299996</v>
+      </c>
+      <c r="J58">
+        <v>10303.851748900001</v>
+      </c>
+      <c r="K58">
+        <v>8449.4897526000004</v>
+      </c>
+      <c r="L58">
+        <v>534.43827707399998</v>
+      </c>
+      <c r="M58">
+        <v>2983.8517489400001</v>
+      </c>
+      <c r="N58">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>